--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt10a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt10a-Fzd5.xlsx
@@ -546,10 +546,10 @@
         <v>0.035943</v>
       </c>
       <c r="I2">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J2">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N2">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q2">
-        <v>0.04850434765899999</v>
+        <v>0.04633314285166667</v>
       </c>
       <c r="R2">
-        <v>0.436539128931</v>
+        <v>0.4169982856650001</v>
       </c>
       <c r="S2">
-        <v>0.008807749154605197</v>
+        <v>0.01407024507190705</v>
       </c>
       <c r="T2">
-        <v>0.0088077491546052</v>
+        <v>0.01407024507190705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.035943</v>
       </c>
       <c r="I3">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J3">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,13 +623,13 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P3">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q3">
         <v>0.1350405866616667</v>
@@ -638,10 +638,10 @@
         <v>1.215365279955</v>
       </c>
       <c r="S3">
-        <v>0.02452158765990517</v>
+        <v>0.04100853151850036</v>
       </c>
       <c r="T3">
-        <v>0.02452158765990517</v>
+        <v>0.04100853151850037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.035943</v>
       </c>
       <c r="I4">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J4">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N4">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q4">
-        <v>0.03856955069966667</v>
+        <v>0.06774470345133334</v>
       </c>
       <c r="R4">
-        <v>0.3471259562970001</v>
+        <v>0.6097023310620001</v>
       </c>
       <c r="S4">
-        <v>0.007003721191278778</v>
+        <v>0.02057241363780355</v>
       </c>
       <c r="T4">
-        <v>0.007003721191278779</v>
+        <v>0.02057241363780355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.035943</v>
       </c>
       <c r="I5">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J5">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N5">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O5">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P5">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q5">
-        <v>0.01191170988333333</v>
+        <v>0.009817099609000001</v>
       </c>
       <c r="R5">
-        <v>0.10720538895</v>
+        <v>0.088353896481</v>
       </c>
       <c r="S5">
-        <v>0.002163009250065947</v>
+        <v>0.00298121363871573</v>
       </c>
       <c r="T5">
-        <v>0.002163009250065947</v>
+        <v>0.00298121363871573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.035943</v>
       </c>
       <c r="I6">
-        <v>0.05171089204633738</v>
+        <v>0.08983953209358128</v>
       </c>
       <c r="J6">
-        <v>0.05171089204633738</v>
+        <v>0.0898395320935813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N6">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q6">
-        <v>0.05074611656266668</v>
+        <v>0.03690493452166667</v>
       </c>
       <c r="R6">
-        <v>0.4567150490640001</v>
+        <v>0.332144410695</v>
       </c>
       <c r="S6">
-        <v>0.00921482479048228</v>
+        <v>0.01120712822665459</v>
       </c>
       <c r="T6">
-        <v>0.00921482479048228</v>
+        <v>0.01120712822665459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H7">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I7">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J7">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N7">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q7">
-        <v>0.8894865811289999</v>
+        <v>0.4693990940816667</v>
       </c>
       <c r="R7">
-        <v>8.005379230160999</v>
+        <v>4.224591846735001</v>
       </c>
       <c r="S7">
-        <v>0.1615190196567451</v>
+        <v>0.1425450527153832</v>
       </c>
       <c r="T7">
-        <v>0.1615190196567451</v>
+        <v>0.1425450527153832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H8">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I8">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J8">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N8">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O8">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P8">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q8">
-        <v>2.476412848345</v>
+        <v>1.368090423871667</v>
       </c>
       <c r="R8">
-        <v>22.287715635105</v>
+        <v>12.312813814845</v>
       </c>
       <c r="S8">
-        <v>0.4496838783361509</v>
+        <v>0.415455683764632</v>
       </c>
       <c r="T8">
-        <v>0.449683878336151</v>
+        <v>0.415455683764632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H9">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I9">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J9">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N9">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q9">
-        <v>0.7072994369230001</v>
+        <v>0.6863187012953333</v>
       </c>
       <c r="R9">
-        <v>6.365694932307002</v>
+        <v>6.176868311658</v>
       </c>
       <c r="S9">
-        <v>0.1284362396007889</v>
+        <v>0.2084182451333743</v>
       </c>
       <c r="T9">
-        <v>0.1284362396007889</v>
+        <v>0.2084182451333743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H10">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I10">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J10">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N10">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O10">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P10">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q10">
-        <v>0.21844033805</v>
+        <v>0.09945661743100001</v>
       </c>
       <c r="R10">
-        <v>1.96596304245</v>
+        <v>0.895109556879</v>
       </c>
       <c r="S10">
-        <v>0.03966588142402464</v>
+        <v>0.03020254822249199</v>
       </c>
       <c r="T10">
-        <v>0.03966588142402466</v>
+        <v>0.03020254822249199</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.219711</v>
+        <v>0.121379</v>
       </c>
       <c r="H11">
-        <v>0.6591330000000001</v>
+        <v>0.364137</v>
       </c>
       <c r="I11">
-        <v>0.9482891079536626</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="J11">
-        <v>0.9482891079536627</v>
+        <v>0.9101604679064187</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N11">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q11">
-        <v>0.9305967795760002</v>
+        <v>0.3738823176116667</v>
       </c>
       <c r="R11">
-        <v>8.375371016184001</v>
+        <v>3.364940858505</v>
       </c>
       <c r="S11">
-        <v>0.168984088935953</v>
+        <v>0.1135389380705373</v>
       </c>
       <c r="T11">
-        <v>0.168984088935953</v>
+        <v>0.1135389380705373</v>
       </c>
     </row>
   </sheetData>
